--- a/data/labeled_data/Morten.xlsx
+++ b/data/labeled_data/Morten.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99103050-336C-48D6-AE4B-5E6609E23EA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3729" yWindow="3214" windowWidth="17588" windowHeight="10989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unique" sheetId="1" r:id="rId1"/>
+    <sheet name="Shared" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +20,1335 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="328">
+  <si>
+    <t xml:space="preserve">The same whale spiked up btc decides to drop the hammer.. there will be chaos_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorted the DOW at 24..4k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptrend is based off short-selling strats, shorts tend to congregate around delivery estimates and earnings reports. about 2 days after, they close their short positions, which causes a strong spike up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really want to know who is buying at these levels._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the forecast for the day buy or sell i am new please guide_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God Bless Donald Trump. Tesla will be banned in China or at least they will have huge duties ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  usd incoming till december_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it will go up to  [OPTIMISTICVALUE]  area "Bull trap"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone know what they plan on announcing today?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 5k  [PESSIMISTICVALUE]  dec 2018, are you ready!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is trying to force the fed to abandon the rate rise,, below 24k and u know what fomc will bring.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  today??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i would be extremely careful as the second target of the rising wedge is exactly at the neck of this huge H&amp;amp;S.; the perfect storm that might not happen_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckily my portfolio is 35 percent into bonds_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is this a fan club or what? market crashing yet this stock going up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is good to be hodlers these days_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the present issue in money inflows into to the market.  just not enough cash to lift all the sectors at the same time. .  you can pull the data of wsj._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP500 heading to 2900. This is a Buy Mkt_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine I give it a try, It’s weak_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Buffet..Where going to need your HELP" pretty Soon..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I congratulate you people who bought today and pity those of you who sold. *The news* of the last two months is the fact that Models 3 at 35K, **NOW**. Sales will EXPLODE. There is literally nothing negative since it reached $ [OPTIMISTICVALUE]  but the stock is 275 now, ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ll be back in same position!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does anyone have anything to offer more than what a program can tell me?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla needs 1billion usd by February. If shares are not at  [OPTIMISTICVALUE] . Convertibles._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell fast posible you can_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people here Know who's the best and it is not you!!!!!!!!!!!!!!!!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timber?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green light?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going higher_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So let me get this Autodata reported 2017 sales data correct:  GM sold 23.300 Chevy Bolts in 2017 to Tesla's 1,800 Model 3s and Tesla is a leader in electric car roll out?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tether bot in bitfinex is being used to defend BTC price now. Looks like it's out of resource to pump again._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">futures - bears 130 bulls 0_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without Musk the equity is worth zero_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right after the president's inauguration in Russia this thing is going down. Insider info._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another round of sale off after mobs' lunch break._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any of the bears in here planning to target Pinterest or Uber IPO's? The latter of these, at least, is looking awfully dicey. No gains for the private sector, inflated investment prices, and big plans to capture these "gains" from the public markets. Lyft ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bored now. These sideways *******. Need any big red or green candle_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the dollar falls the so-called financial expert say, the stock marked is up due to dollar weakens. Today usd is up 0.5 percent against euro and all basket currencies. The job data on friday was bad, no important data has been annonced so far! Why is D...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As long as it closes above 268.5 today and 271 tomorrow - which is quite likely --- it will start moving north from there_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tethers are printed 40000000 on Jan  [PESSIMISTICVALUE]  and 31. BFX bots will perform price action with them. Be careful. nnhttp://omnichest.info/lookupadd.aspx?address=1NTMakcgVwQpMdGxRQnFKyb3G1FAJysSfz&amp;amp;page;=1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow Jones had 20-Day Moving Average near previous high (24.373). Once the index moves above this level, then its next target will be 100-Day &amp;amp; 50 Day MAs near 24,700/ 24,800. As long as Dow Jones trades above its 20-Day MA, its will be in a short term uptr...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just for info now:. $TSLA short interest $10.4 bn, 35.4 mm shares shorted 27.76% of float_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who's shorting from 6750? Anyone?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US first quarter GDP expected lower because of shout down government 800.000 workers not getting paid...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimately we believe the company's guidance is aggressive," analysts from Wedbush Securities said in a note to clients. Musk has long resisted the need to raise capital, but he told a conference call with analysts it was now the right time. Several analys...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake up people. There is newborn crypto currency Petro, backed by oil, gas, gold and diamonds. Oh, I forgot, what is BTC backed by?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Trump was trying to achieve at was so called partial optimization. By reducing US trade deficits (achieving at partial optimization). the US will sacrifice total optimization, that is, global economy as well as economy in th US._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again and again  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are looking into alts MTC and POLL would be the best choice_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see how they rigg up now all day this_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Volkswagen will buy 50 billion euros ($56.57 billion) worth of battery cells for electric cars and has identified South Korea's SKI, LG Chem and Samsung (KS:005930) SDI as strategic battery cell suppliers as well as China's Contemporary Amperex Technology...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still  [PESSIMISTICVALUE] .7k till 1.6 cryptogeorge? Lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well done trump, no christmas rally thanks to you_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do u people think its early to jump in ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS I said 5.000 next 6,000-7,000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only goes up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your that worried about one position your trade size is to big_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGN Btc  [OPTIMISTICVALUE] $ in week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold tight_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zerohedge.com/news/2018-10-25/analyst-erupts-tesla-they-used-every-trick-every-fraud-put-lipstick-q3-results_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soem people here should stay humble...they made some money (not as much as they say) once in their lifetime of investing and now are giving lessons of life to the others, these people are the losers in the long run, do not follow the so called genious, to ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX isn’t buying it_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouch broke 260. More down trend to come_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmm ...money moving to the alt coins now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find this technical study very good ...    .  https://www.tradingview.com/chart/DJI/FJcuEq8a-Trade-War-Technical-Bearish/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody went short_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE] $ sooon btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder what happens when election season kicks off..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it seems that anaother red day today._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So many people will regret for not buying precious metal with this thing_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodl !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs cut really! What about semitruck or model Y or the model 3 X or S to many orders so they cut 10% of work force?!?! Cmon!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When its boring expect action weather down or up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like Capital Markets are running out of gas. They just don't know what to come up with next in order to propel these markets anymore._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla made $313 millions and need pay suppliers $600 millions this is the way to make profit nice!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price is way below  [PESSIMISTICVALUE]  already on other exchanges._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy now with sl  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irrespective of Musk production drama, it's shorting time (started 1st day @ [OPTIMISTICVALUE] -343, 2nd day @342-330, 3rd today @332-310) --------. . Next 4 days. 05Jul2018 307 -286-287. 06jul2018  280-266-268. 09jul2108  277-267-273. 10jul 2018  277-263-276. . So the bo...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can you spot from monthly candle, newbie!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What about S America ,... Brazil ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No blood in the streets yet... max pain is at $90. Even Warren might buy some at that price._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its a good price .. it don’t matter which direction it goes !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is Irina?missed her comments today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">china will tariffs on car import from US_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be? Do not fall in love. . Copy-paste. . "The mistake of fanatics is to consider that a speculator knows the product and values it, that's why he buys it; it's not like that, the speculator buys because it rises and gives it a yield, be it an stock, an ind...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos come first then the same situatio is waiting for us_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending up.  The trend is your friend._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodbye BTC... RIP. We will miss you._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dow needs a lot of adjustments to go up.  DOW can not go up without adjustment._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many time did we shorts on this forum warned that betting on China is a big mistake by Elon._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC once again attempted to stay above the daily MA50, however, it pulled back. The price rebounded from Fib50%= [OPTIMISTICVALUE] /past weekly close(8232.3) &amp;amp; the BB is becoming narrower (8706-8030). The daily TI continue to exert selling pressures which are always bein...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry Bears ... Trump kicked your Assy again :) lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markets are up but investors have lost confidence in this stock -$ [PESSIMISTICVALUE]  today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] k drop from kumar sell and now its the pits?.... kumar... you have strike  [PESSIMISTICVALUE] .... wanna beeee long Bitcoin lmao_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalper pls help_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fact Audi launches its own electric vehicle simply means that TSLA is at least one decade ahead with their technology compared to the competition. decade in technology terms is comparable to centuries in mechanical terms. I assume that makes very clear...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..good mourning_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just follow the trend up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open your eyes and look the big picrure, general market is down, FB crash etc, it has nothing to do with any analyst comments or your belife on Tesla, it is market risk, ur tsla goes down when the market is down, thats all you need to know._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC will reach 4500USD before  [PESSIMISTICVALUE] /26/0:00:01_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENT
+</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell 265 - TP  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy bitcoin_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major correction started_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla will be dominating EV industries at least for a while. Bought Tsla at  [PESSIMISTICVALUE] -265 when it fell last year and still holding 95 shares. Will keep them until I see real competition coming out from other car makers. Good luck everyone !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remember that short squeeze i was talking about a few days ago? it approacheth_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need a lower low here to absolutely confirm the skyfall trend...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last week model 3 production was off for 6 days now the production is in line ?! How much money pay Tesla to this people to come up with this b.s_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC is Going All The Way Up No Limit Now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target  [OPTIMISTICVALUE]  is near for long_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teslas market cap from 60b to 45b in 3 days. Elon is in trouble_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy bitcoin every dips, sky rocket is coming to 7.500_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommorow it will go down ..today only 100 I guess_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The future is dark for oil and Tesla shorts. The level-headed ones know that, and that is why you've seen so much negative press on Tesla. They are trying to push Tesla below the current supporting level, possibly making the last squeeze before the market ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$3.800_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This stock HUM will out perform the overall Market!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy TSLA . great opportunity_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom shorters taking shots to the ribs ouch.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this rate it's going, Dow would definitely fall below 24k today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will hit $ [OPTIMISTICVALUE]  today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This market it screaming to everyone to get out. And, it has given everyone enough time to get out. If you haven't listened , you have no one but yourself to blame._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helicopter money coming this year_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Í Think Tesla will go down_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  Jan 3751 3343-4158 3626 -3.3% Feb 3626 2928-3908 3652 -2.6% Mar 3652 3172-3652 3411 -9.1% Apr 3411 2664-3411 2865 -23.6% May 2865 2551-2935 2743 -26.9% Jun 2743 2405-2767 2586 -31.1% Jul 2586 2185-2586 2349 -37.4% Aug 2349 2349-2916 2725 -27.4% Sep 27...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone is scared here_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And the Musk train wreck continues on, now with the brakes permanently deactivated.. . . "Securities and Exchange Commission officials were understandably taken aback on Thursday morning when Tesla’s board — and its chairman, Elon Musk — abruptly pulled ou...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys check out rdd and nyc coins_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now up signal SL 24285_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more stock offer at $ [PESSIMISTICVALUE] !!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geez good morning... didn't know we were up to biblical proportions_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bears are getting ready_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla is going to test the resistance of  [OPTIMISTICVALUE]  on Monday. yay._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">letzt go back to  [PESSIMISTICVALUE]  and then all the way up for good_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book profits in buy call around 25830_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This stock is now being manipulated by the billionaire boys club!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rather, Goldfajn noted that he prefers to think of them (bitcoin and altcoins) as “crypto-assets” rather than “cryptocurrencies.” VERY VERY VERY TRUE!! BTC is like CRYPTO GOLD._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cnbc.com/2018/04/11/tariffs-china-will-fight-back-if-us-escalates-trade-spat.html_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buying at opening might be a good idea for daily traders!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gosball I hope you shorted yesterday_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy on rumor sell on fact. Welcome to tariff issue_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">during a spike_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulation is good for crypto. SEC is good news. The world to follow suit imo. Who roamed the land of wild west crypto will be riding new horse from the machines. The big money will come.  [PESSIMISTICVALUE]  Trillion EOY  [PESSIMISTICVALUE] 018_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow Target  [PESSIMISTICVALUE]  in very short term..... 3 year target 18000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy FB Buy AMZN Buy NFLX. Sell aapl and TSLA_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© ★ I want more coins_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New target  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This stock is under control not to many share to short .they do what they want.even if the company is broke and without cash they are keeping the stock up.12 billions in debt to big to fail. But at one point will collapse._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onother boring market to traid . Anyway I wouldn't be long on cryptos. When this hits weekly  [PESSIMISTICVALUE]  MA I'll think about buying btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmon later it will bounce back buy the dips is the best strategy_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chart for tesla is horrible get ready for the $ [PESSIMISTICVALUE]  support!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still some shorts left to squeeze, this bull run is sponsored by the fellow bears._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">such a strong trend does not change by magic and less by traders :v_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESLA WILL BE MAKING BIG BIG PROFIT VERY VERY SOON!!!! I RECOMMEND EVERYONE BUY BUY BUY!!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm not the pro-btc regular kind of guy. I think it's rather slow and outgrown by other cryptos, still I like the idea of it as a storage of value. But you guys who come here everyday to tell ppl that cryptos are dead and that btc is going to 0$are serious...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you think it'll open green and continue up on Monday?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon is in deep trouble now and no Model X, Y or Z will save him!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will be able to buy much lower  [PESSIMISTICVALUE]  months later. I placed buy order @ [PESSIMISTICVALUE] k._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micron: My Top Pick For 2019 . https://seekingalpha.com/article/4218178-micron-top-pick-2019_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesting that all the credit ratings agencies consider Tesla debt as "junk." Tesla is rated B3 by Moody's. Moody's assigns its B3 rating for “obligations considered speculative and subject to high credit risk.” Entities that receive this rating may be e...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its looking like Bitcoin is starting to use its legs, I would love it to finish the weekend around.   [OPTIMISTICVALUE]  to 13800 to confirm a bull trend_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are mrkts open Monday?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time to buy some_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very soon one of this small price drops is going to trigger a major sell, witch will then trigger more major sell. Before you know it, boom ...end of crypto._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell on rise upto 24500 SL today high target 24000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i am buying at $ [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was wrong._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like Dow is marching ahead to close the loss yesterday_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think anything under  [OPTIMISTICVALUE] $ is a very good price for long._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like everybody chooses to ignore solid TA as provided by Crypto George. Expect bearish pressure to continue but I see the next few hours to again show a slow sideways grind within the 1HR BB -  [PESSIMISTICVALUE] .5-11.5K. Too risky to scalp so play safe. The stochast...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy the dip and make money this the easiest and consistent way in this crazy market. why do you need to analyze too much ? just go with the flow and trail stoploss._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Jesus ... Is $ [PESSIMISTICVALUE]  ur next stop, #Tesla ? *joytears #eyesrolling C0425'09_$247.63__x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It follows this pattern as planned._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boeing at 435!!! Single handedly pushing the index_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anyone just listen to Elon on the call?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so all the pro whales have left the boat. but still this thing can go to  [PESSIMISTICVALUE]  k and come back. people are heavily short on this one. major short squeeze is due any moment. watch out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the top will in the high 28000s - mid 29000s in beginning of July.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today any news up or down_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think going back to FIAT even temporarily over the next  [PESSIMISTICVALUE] -15 days is very tricky and should be use only by very Intuitive Traders. The key focus in my opinion is to try to Guess which coins will benefit more from the coming Surge of March._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing day everybody sell off, which mean we can buy dip, buy any dip make huge money._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now imagine US and China trade deal now?  what do you think Trump will sign?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24600 more possible ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They produced 2.071 Model 3 cars last week. Watch the CBS interview from Friday. https://t.co/9emY7HCcoM And paying minimum wage for “interns” they abuse isn’t exactly scalable._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did anyone grab wand at  [PESSIMISTICVALUE]  cents? I do think its run is starting._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bull party is over for next several months..see ya’ll at 19.5K ;-)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all be ready when market opens...its a very interesting day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit card defaults on the rise around the world because of bitcoin crash._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 points down from my sell price_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this one really crashed me_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its just a theory but goes like this: Exactly when first futures were anounced they started to pump bitcoin like there is no tomorrow. Me, average Joe and his mom started to see some profit. After  [PESSIMISTICVALUE] .000 everyone expected market to colapse in a similar way...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There going to need more FLEXXX SEAL!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and please No more revenue arguments, you can make trillions in revenue and it does no good if you can't show a profit; a real profit, not less than a handful of profitable quarters which don't even cover your operating costs_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok now we got a serious fall and if we get  [PESSIMISTICVALUE]  we got a good oppertunity for a good long_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorial day weekend no buggy light volume next week steady ride up to  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My "day trader's" 5 minute interval retracement.  I covered short a bit early (too many distractions), then didn't trust a long from $255.60.. . . . https://invst.ly/8xb8g_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone just poured 300M$ in BTC it wont stop here._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time is the announcement expected?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great news today regarding making batteries lighter and also holding more charge.  This would allow Panasonic to provide a lot longer lasting batteries to Tesla for next generation pickup and semi's_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this stage all the minor dumpers will be cleared out.. and then continue rising.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doooowwwwwn!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla bubble is bursting; hard facts getting in the way._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we please ban Kumar? Can't have an entire page of comments of just one annoying guy._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember 25050 area to watch_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  by end of January_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seriously though, if this sideways trading lasts another couple of hours look for a lot of buys to come in around dawn EDT_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy and hold you wont be sorry.  [OPTIMISTICVALUE]  coming... Back to retrace 50..then break  [OPTIMISTICVALUE]  towards 161.8 fibo ext. Before 18 april we are near 25k.apple near 180 perhaps higher... Facebook fully recovered. Etc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.forbes.com/sites/neilwinton/2019/03/21/tesla-model-3-european-sales-threaten-more-german-profits/#5d54b506664c_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are In a  [PESSIMISTICVALUE]  dollar range_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i think all this is due to  [OPTIMISTICVALUE]  which was 100 ema line..almost all global indexes bounced sharply from here....yesterdays dow close was exactly near to that...so this is good going ahead..trget 50 ema at 24900 area now may b..just view not call...if that ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is Maggie!  What do you estimate US and European sales for this qtr?  I am getting close to 10k total.  What are we looking as far as losses?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  then after that i believe in uptrend_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like a classic 1000 point down day to me._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazing... Tesla still has thousands of model 3's in their inventory.  I stopped at the Tesla store and they can deliver new car still in 2018.  Sales are definitely slowing._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scopeweekly.com/ [PESSIMISTICVALUE] /03/13/starbucks-expert-says-could-be-game-changer/ . Starbucks And Amazon Discuss Cryptocurrency: Expert Says Could Be Game Changer_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade deal optimism again I'm sick of it. we had in February now again._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going to  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting patiently  [PESSIMISTICVALUE]  ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other 100 points today ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after all environmental damages China suffered and still suffering, it's 1-2-3 logic that TSLA sales in China to be sort of Chinese national interest. by 2050 TSLA to book profits above $1.5T only from their operations in China. mark this post._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSV is now neutral for me. I sold most and did very well. I am sidelines on everything atm holding ETH and LTC from  [PESSIMISTICVALUE] !!! ETH below 100 is a buy. ETH forks next month approx near the exchange downtime I posted. caution should be used during the downtime an...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm dreaming of a red Christmas.... with every Christmas card I writ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm starting to think that the Chinese government will steal the Shanghai gigafactory if it ever gets built._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes indeed looking for  [PESSIMISTICVALUE]  percent going down 50 percent is not smart bet_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August promises losses here_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a rock in water. here we go._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looks like it’s going down all night_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution went well today,, now the crash can begin_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down $10.50 after hours already. tomorrow will be even lower_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tether (USDT) Gets Closer to Emptying Treasury with 100M Token Intervention - in the news tab. You know what that means? Get ready for another journey all the way down to 5K._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14000 in 2 year and 50000 in 4 year..... U have to change according to situation.... Otherwise you will miss golden opportunities like jokerFoxxxx....hahahaha.... Joker missed 1000s of opportunities from last 3 years.... Even if market falls, situation wil...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  still seems inevitable_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"leave your body shorts" "leave your body"...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a close correlation between high yield bond market (blue line)  and the Dow. If the high yield market stays low, the Dow cannot go up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this stock is worth nothing_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the lows of February  [PESSIMISTICVALUE]  we are seeing higher lows and higher highs._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteast 400-500 point up. Any idea on cpi data_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im I have bear calls so goodluck for tomorrow :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I started buying this.the more it falls the more I buy.after all my cost average is  [PESSIMISTICVALUE] $_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELL DJI 26630 TGT 26530 / 26430 SL  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM,Mercedes,BMW,toyota can produce Better and cheaper electric cars than Tesla.but market to small yet. Tesla will vanish when this companies start building EVa._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did mention other day that creators of this and early investors they all cash out already when it was at peak last Dec...whats now left are merely bones...now most buy on dips bulls want to reflate back to 20k &amp;gt; 60K ..as they want to fulfill their dreams...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. it is a beautiful day... if your support level holds.  And it should.  Economy is doing fine._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okay, broke resistance, good. let's see if the pros will push it down further in the afternoon._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same sort of pattern as on november  [PESSIMISTICVALUE] . After that price dropped 50 %._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will be negative by days end!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soon to raise new funds, offering equity_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dont be surprised if it bounces right back UP_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi everyone, is it a good idea to short market at this level, 26.6K?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone know who credits this Seeking Alpha source? I feel they're strong against TSLA from all of their reports and such. What is every ones thought on their input?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll be doing my research and give out vague info. Just to ***** with some. Now where are my tamboree, salt crystals, incense and magic  [PESSIMISTICVALUE]  ball. Hahahaha._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy ,Buy Gold !!! Dow Jones  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I sold at price 304. Lol. And it is strong up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how about do you think the game credit?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bought dips in since 24.500 letting it ride to 28k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 USD next month_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask yourself one question . when this is 12k on Monday are you going to be a bull or still a bear and if so would you put your 12k in the pot . if you say i am going to wait till it is 6k before buying you probably shouldn't be here playing. if you say i b...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intraday Buy above  [OPTIMISTICVALUE] . Sell below 25276_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y WERE WARNED_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen market :(_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-:_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy time -_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A classic bull trap._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys ... no bear market but trying to make logic here. But I was thinking tradewar doubts and tension in G7 means stocks would go down as risk appetite decline and it is harder for companies to do business if fears materialize. What did I miss here ... DOW...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will need to raise 8 to 10 B_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See...price action is on work below 12300...tgt  [PESSIMISTICVALUE] .5- [PESSIMISTICVALUE] .6k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop more than 2k please_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is now official. Tesla sales are down -80% in April in Norway. Jaguar iPace sells  [OPTIMISTICVALUE]   cars, ten times more than Model S._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh oh, turns out that M Kumar has started the garbage talk again (t3r ror 1sts, gold forum). The lobotomy has failed Vic... That's too bad, i kind of started to like him. Report and downvote it is from now on._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can someone give us a Good fundamental answer for How these Sick high levels can be explained. And Who wants to own real stocks at these high ratios?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China cut tarriff on car import, tesla to the moon?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why green?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell at 23775_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems the longs disappeared from the forum ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My moto: Without higher high, continuation. Chart was made for fun and to ***some time at work. Dont take it seriously lol._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorry guys very volatile not getting chance to post calls it going fast. a very good day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Long FB ( [PESSIMISTICVALUE] ) AMZN (2000) Oil (&amp;amp;4) and EURUSD (1.18) now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha Ching on my s&amp;amp;p; shorts_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOW_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and a critical question is what the maker of electric cars will pay for that money?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to sell, sell, sell_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when I " invested" lol, I forgot about political risk...and the Fed, the Trump haters , and now the Maxine Waters threat._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead cat bounce at  [PESSIMISTICVALUE]  gonna buy some calls there. Anyways next time she attacks this 250-260 it will break it and go real down - I plan to short it next week most prob!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many Btc have you accumulated in this bear market? I have almost  [PESSIMISTICVALUE]  BTC between Btc and alts. 60% btc and 40% alts_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday's DJIA close vs today is the most outstanding example I've seen of market manipulation in recent times. Fed, GS, Da Boyz all complicit._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems we have ZERO demand on Model 3 side as I see... Musk lied again._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ Raist Lin Hello brother, i hope that you are doing fine! Really useful info, thank you very much. I have an account in Etherdelta, i am going to sign up with Bibox also. Let's see if we can get some Black Friday prices. ;) Btw, have your re-indexed your ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25300 possible today steadily moving up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crazy how it´s still falling agains all the fundamentals!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still stuck 3600_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is going to go deep..imo_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysts at Wedbush on Thursday started coverage of Tesla Inc. TSLA, +2.78% stock at their equivalent of buy, saying the Silicon Valley car maker "has the most impressive product roadmap out of any technology/auto vendor around." The analysts, led by Dan I...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bulls have been rejected from 9700 five times already. You'd think they'd give it up already...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st support  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This month bankruptcy maybe next ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I cant see any bull candle formations.... Just ranging with neg div on the rsi. ah well, been wrong plenty of times before!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">required 2 more green spikes to hit the higher target. go up up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tesla sell-off is about to get ugly. People realise that it's running out of cash and the customer deposit Ponzi scheme no longer works!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well I am mad at myself that I didn't wait enough, looks like it's perfect spot to short atm_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trump's approval rating is poor despite glowing views on the economy, a new poll says, and it could hurt the GOP in November. . https://www.cnbc.com/2018/09/10/low-trump-approval-rating-despite-strong-economy-could-hurt-gop.html_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if you are afraid of Tesla dropping cause of elon and his tweets. just put your self in his shoes and really ask your self... could you really just ignore the obnoxious insults you've had sent to you. similar to the comments you see about how Tesla is ruin...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watch out for fake airdrops website scams... https://www.youtube.com/watch?v=0xBibmvn1Jc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what do u think guys? more up or down?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait the $ [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2H TF did not receive a confirmation of upward signal. Therefore, I return to the initial model when I first have opened long at ~ [PESSIMISTICVALUE]  and have set a deep SL on daily EMA91; and now I also set SL there ~7400. If the fall continues - I will only increase my...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22800 &amp;amp;  [PESSIMISTICVALUE]  these two support zone before 22000. a dead bounce is coming near 22800 and if this is going to be happen then we can touch 23300 on upside. hope for best_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gang, this will be my last post here.  I decided not to buy Tesla.  Good luck and enjoy the ride!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we all now that buying interest is at his lowest and people pull up they nose for BTC right now, maybe with renewed intrest we see higher ground_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22k-38k-5k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market cap 53.96B .do the mystery chart..!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children short it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will hit 23860 shortly_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And other scenario very likely could happen is they could run the price close  [OPTIMISTICVALUE]  before earnings(may 01)and sell the ***out of it 2 or 3 days before earnings_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And people still mining this ******** hope it goes to 0 next year._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pumping time_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why would you short the biggest momentum name when there is already a record amount short the float??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good time to buy Bitcoin. Should test  [OPTIMISTICVALUE]  next._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falling knife...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks to Maggie I did not bought Tesla Yet._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double bottom on the 15m chart. Come on BTC, lets get the rally back on track!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shorted  [OPTIMISTICVALUE]  Tp 23560_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in January we will see the shorters come back and tesla is most likely to fall below  [PESSIMISTICVALUE]  and from there it will rise again just after their Q4 report_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who bought at  [PESSIMISTICVALUE]  and hit a market buy order when everyone was panic selling? Rolla Did! :-))_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going to hit resistance at this level (High 330ish).. This is where you short._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The markets are on verge of collapse...sell into any strength_x000D_
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +1371,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +1664,1988 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="54.921875" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A107" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A114" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B251" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A114" r:id="rId1" xr:uid="{3E2BD084-EBA1-4F03-97E2-1E71C6C46360}"/>
+    <hyperlink ref="A107" r:id="rId2" location="5d54b506664c _x000a_" xr:uid="{786BBDDA-B8A0-4B45-8D7D-E5218A0E42AB}"/>
+    <hyperlink ref="A37" r:id="rId3" xr:uid="{5638BCD2-EA65-46CC-BFB2-2DBBCB6DA400}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895C986-5639-41B7-97E4-8502EF320921}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="55.3046875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A61" r:id="rId1" xr:uid="{D5864DC2-6911-4832-85F0-7E97A621681A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/labeled_data/Morten.xlsx
+++ b/data/labeled_data/Morten.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99103050-336C-48D6-AE4B-5E6609E23EA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF172AE7-52A4-5C43-9302-2E9BA6C8C56E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3729" yWindow="3214" windowWidth="17588" windowHeight="10989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique" sheetId="1" r:id="rId1"/>
     <sheet name="Shared" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unique!$A$1:$B$226</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="332">
   <si>
     <t xml:space="preserve">The same whale spiked up btc decides to drop the hammer.. there will be chaos_x000D_
 </t>
@@ -115,10 +118,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tesla needs 1billion usd by February. If shares are not at  [OPTIMISTICVALUE] . Convertibles._x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">sell fast posible you can_x000D_
 </t>
   </si>
@@ -441,18 +440,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Major correction started_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tesla will be dominating EV industries at least for a while. Bought Tsla at  [PESSIMISTICVALUE] -265 when it fell last year and still holding 95 shares. Will keep them until I see real competition coming out from other car makers. Good luck everyone !_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">remember that short squeeze i was talking about a few days ago? it approacheth_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Need a lower low here to absolutely confirm the skyfall trend...._x000D_
 </t>
   </si>
@@ -545,14 +536,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">geez good morning... didn't know we were up to biblical proportions_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bears are getting ready_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">tesla is going to test the resistance of  [OPTIMISTICVALUE]  on Monday. yay._x000D_
 </t>
   </si>
@@ -765,10 +748,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">bull party is over for next several months..see ya’ll at 19.5K ;-)_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">all be ready when market opens...its a very interesting day_x000D_
 </t>
   </si>
@@ -1157,10 +1136,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">How many Btc have you accumulated in this bear market? I have almost  [PESSIMISTICVALUE]  BTC between Btc and alts. 60% btc and 40% alts_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yesterday's DJIA close vs today is the most outstanding example I've seen of market manipulation in recent times. Fed, GS, Da Boyz all complicit._x000D_
 </t>
   </si>
@@ -1330,6 +1305,46 @@
   </si>
   <si>
     <t xml:space="preserve">The markets are on verge of collapse...sell into any strength_x000D_
+</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major correction started
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remember that short squeeze i was talking about a few days ago? it approacheth
+</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geez good morning... didn't know we were up to biblical proportions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bears are getting ready
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bull party is over for next several months..see ya’ll at 19.5K ;-)
+</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many Btc have you accumulated in this bear market? I have almost    BTC between Btc and alts. 60% btc and 40% alts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla needs 1billion usd by February. If shares are not at  [OPTIMISTICVALUE] . Convertibles.
 </t>
   </si>
 </sst>
@@ -1386,7 +1401,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1667,1450 +1682,1899 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.921875" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
+      <c r="B41" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A73" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
+      <c r="B86" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+      <c r="B87" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
+      <c r="B91" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
+      <c r="B94" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
+      <c r="B95" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
+      <c r="B96" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
+      <c r="B97" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
+      <c r="B101" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A100" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A101" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A102" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A105" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A107" s="3" t="s">
+      <c r="B112" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A108" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A109" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A110" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A111" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A112" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A113" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A114" s="3" t="s">
+      <c r="B119" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A115" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A116" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A117" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A118" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A119" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A120" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A121" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A122" s="1" t="s">
+      <c r="B127" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A123" s="1" t="s">
+      <c r="B128" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A124" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A125" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A126" s="1" t="s">
+      <c r="B131" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A127" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A128" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A129" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A130" s="1" t="s">
+      <c r="B135" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A131" s="1" t="s">
+      <c r="B136" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A132" s="1" t="s">
+      <c r="B137" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A133" s="1" t="s">
+      <c r="B138" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A134" s="1" t="s">
+      <c r="B139" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A135" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A136" s="1" t="s">
+      <c r="B141" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A137" s="1" t="s">
+      <c r="B142" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A138" s="1" t="s">
+      <c r="B143" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A139" s="1" t="s">
+      <c r="B144" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A140" s="1" t="s">
+      <c r="B145" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A141" s="1" t="s">
+      <c r="B146" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A142" s="1" t="s">
+      <c r="B147" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A143" s="1" t="s">
+      <c r="B148" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A144" s="1" t="s">
+      <c r="B149" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A145" s="1" t="s">
+      <c r="B150" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A146" s="1" t="s">
+      <c r="B151" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A147" s="1" t="s">
+      <c r="B152" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A148" s="1" t="s">
+      <c r="B153" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A149" s="1" t="s">
+      <c r="B154" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A150" s="1" t="s">
+      <c r="B155" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A151" s="1" t="s">
+      <c r="B156" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A152" s="1" t="s">
+      <c r="B157" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A153" s="1" t="s">
+      <c r="B158" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A154" s="1" t="s">
+      <c r="B159" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A155" s="1" t="s">
+      <c r="B160" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A156" s="1" t="s">
+      <c r="B161" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A157" s="1" t="s">
+      <c r="B162" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A158" s="1" t="s">
+      <c r="B163" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A159" s="1" t="s">
+      <c r="B164" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A160" s="1" t="s">
+      <c r="B165" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A161" s="1" t="s">
+      <c r="B166" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A162" s="1" t="s">
+      <c r="B167" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A163" s="1" t="s">
+      <c r="B168" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A164" s="1" t="s">
+      <c r="B169" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A165" s="1" t="s">
+      <c r="B170" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A166" s="1" t="s">
+      <c r="B171" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A167" s="1" t="s">
+      <c r="B172" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A168" s="1" t="s">
+      <c r="B173" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A169" s="1" t="s">
+      <c r="B174" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A170" s="1" t="s">
+      <c r="B175" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A171" s="1" t="s">
+      <c r="B176" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A172" s="1" t="s">
+      <c r="B177" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A173" s="1" t="s">
+      <c r="B178" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A174" s="1" t="s">
+      <c r="B179" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A175" s="1" t="s">
+      <c r="B180" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A176" s="1" t="s">
+      <c r="B181" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A177" s="1" t="s">
+      <c r="B182" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A178" s="1" t="s">
+      <c r="B184" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A179" s="1" t="s">
+      <c r="B185" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A180" s="1" t="s">
+      <c r="B186" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B180" s="1"/>
-    </row>
-    <row r="181" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A181" s="1" t="s">
+      <c r="B187" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A182" s="1" t="s">
+      <c r="B188" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A183" s="1" t="s">
+      <c r="B189" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A184" s="1" t="s">
+      <c r="B190" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A185" s="1" t="s">
+      <c r="B191" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A186" s="1" t="s">
+      <c r="B192" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A187" s="1" t="s">
+      <c r="B193" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A188" s="1" t="s">
+      <c r="B194" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A189" s="1" t="s">
+      <c r="B195" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B189" s="1"/>
-    </row>
-    <row r="190" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A190" s="1" t="s">
+      <c r="B196" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A191" s="1" t="s">
+      <c r="B197" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A192" s="1" t="s">
+      <c r="B198" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A193" s="1" t="s">
+      <c r="B199" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A194" s="1" t="s">
+      <c r="B200" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A195" s="1" t="s">
+      <c r="B201" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B195" s="1"/>
-    </row>
-    <row r="196" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A196" s="1" t="s">
+      <c r="B202" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B196" s="1"/>
-    </row>
-    <row r="197" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A197" s="1" t="s">
+      <c r="B203" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B197" s="1"/>
-    </row>
-    <row r="198" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A198" s="1" t="s">
+      <c r="B204" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B198" s="1"/>
-    </row>
-    <row r="199" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A199" s="1" t="s">
+      <c r="B205" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A200" s="1" t="s">
+      <c r="B206" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A201" s="1" t="s">
+      <c r="B207" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B201" s="1"/>
-    </row>
-    <row r="202" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A202" s="1" t="s">
+      <c r="B208" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A203" s="1" t="s">
+      <c r="B209" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A204" s="1" t="s">
+      <c r="B210" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B204" s="1"/>
-    </row>
-    <row r="205" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A205" s="1" t="s">
+      <c r="B211" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B205" s="1"/>
-    </row>
-    <row r="206" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A206" s="1" t="s">
+      <c r="B212" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B206" s="1"/>
-    </row>
-    <row r="207" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A207" s="1" t="s">
+      <c r="B213" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B207" s="1"/>
-    </row>
-    <row r="208" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A208" s="1" t="s">
+      <c r="B214" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A209" s="1" t="s">
+      <c r="B215" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A210" s="1" t="s">
+      <c r="B216" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B210" s="1"/>
-    </row>
-    <row r="211" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A211" s="1" t="s">
+      <c r="B217" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A212" s="1" t="s">
+      <c r="B218" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A213" s="1" t="s">
+      <c r="B219" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B213" s="1"/>
-    </row>
-    <row r="214" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A214" s="1" t="s">
+      <c r="B220" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B214" s="1"/>
-    </row>
-    <row r="215" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A215" s="1" t="s">
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B215" s="1"/>
-    </row>
-    <row r="216" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A216" s="1" t="s">
+      <c r="B222" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B216" s="1"/>
-    </row>
-    <row r="217" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A217" s="1" t="s">
+      <c r="B223" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B217" s="1"/>
-    </row>
-    <row r="218" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A218" s="1" t="s">
+      <c r="B224" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B218" s="1"/>
-    </row>
-    <row r="219" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A219" s="1" t="s">
+      <c r="B225" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A220" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B220" s="1"/>
-    </row>
-    <row r="221" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A221" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A222" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B222" s="1"/>
-    </row>
-    <row r="223" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A223" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A224" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A225" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B225" s="1"/>
-    </row>
-    <row r="226" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A226" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B226" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B226" xr:uid="{257D6F5B-012C-0F4E-9D3B-774EB9D12269}"/>
   <hyperlinks>
     <hyperlink ref="A114" r:id="rId1" xr:uid="{3E2BD084-EBA1-4F03-97E2-1E71C6C46360}"/>
     <hyperlink ref="A107" r:id="rId2" location="5d54b506664c _x000a_" xr:uid="{786BBDDA-B8A0-4B45-8D7D-E5218A0E42AB}"/>
@@ -3122,524 +3586,1121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895C986-5639-41B7-97E4-8502EF320921}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.3046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>321</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>321</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>322</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>325</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
+      <c r="B61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>325</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
+      <c r="B63" t="s">
+        <v>321</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
+      <c r="B65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
+      <c r="B67" t="s">
+        <v>321</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
+      <c r="B68" t="s">
+        <v>322</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+      <c r="B69" t="s">
+        <v>325</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
+      <c r="B70" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
+      <c r="B71" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+      <c r="B72" t="s">
+        <v>325</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A73" s="1" t="s">
+      <c r="B73" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
+      <c r="B74" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+      <c r="B75" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
+      <c r="B76" t="s">
+        <v>322</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+      <c r="B77" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+      <c r="B78" t="s">
+        <v>322</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+      <c r="B79" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
+      <c r="B80" t="s">
+        <v>325</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
+      <c r="B81" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+      <c r="B84" t="s">
+        <v>325</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
+      <c r="B85" t="s">
+        <v>325</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
+      <c r="B86" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
+      <c r="B87" t="s">
+        <v>321</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
+      <c r="B88" t="s">
+        <v>322</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
+      <c r="B89" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
+      <c r="B90" t="s">
+        <v>321</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
+      <c r="B91" t="s">
+        <v>321</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
+      <c r="B92" t="s">
+        <v>322</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
+      <c r="B93" t="s">
+        <v>322</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
+      <c r="B94" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
+      <c r="B95" t="s">
+        <v>321</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
+      <c r="B96" t="s">
+        <v>325</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
+      <c r="B97" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
+      <c r="B98" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
+      <c r="B99" t="s">
+        <v>322</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A100" s="1" t="s">
+      <c r="B100" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A101" s="1" t="s">
-        <v>99</v>
+      <c r="B101" t="s">
+        <v>321</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/labeled_data/Morten.xlsx
+++ b/data/labeled_data/Morten.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF172AE7-52A4-5C43-9302-2E9BA6C8C56E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95651FB-DB44-864E-A9B6-25EF38B94934}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique" sheetId="1" r:id="rId1"/>
     <sheet name="Shared" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Shared!$A$1:$C$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unique!$A$1:$B$226</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -1682,7 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3588,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895C986-5639-41B7-97E4-8502EF320921}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4704,6 +4705,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C101" xr:uid="{DC4E348B-9B32-E843-895E-3C37E5BE5A26}"/>
   <hyperlinks>
     <hyperlink ref="A61" r:id="rId1" xr:uid="{D5864DC2-6911-4832-85F0-7E97A621681A}"/>
   </hyperlinks>
